--- a/example_exergyCalc01/ExampleSimulation.xlsx
+++ b/example_exergyCalc01/ExampleSimulation.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22221"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ExampleStreams1" sheetId="1" r:id="rId1"/>
     <sheet name="Examplestreams1_exergy" sheetId="2" r:id="rId2"/>
+    <sheet name="H2Ostreams" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>C3H6</t>
   </si>
@@ -188,10 +189,33 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -214,15 +238,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,11 +562,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
@@ -1484,6 +1561,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3200,4 +3278,128 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>273.15+15</f>
+        <v>288.14999999999998</v>
+      </c>
+      <c r="C2">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="D2">
+        <v>614.5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0.75043599999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.22994000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>25+273.15</f>
+        <v>298.14999999999998</v>
+      </c>
+      <c r="C3">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="D3">
+        <v>65.209900000000005</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>833.78710000000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>124</v>
+      </c>
+      <c r="D4" s="3">
+        <v>65.209900000000005</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>